--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1994.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1994.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.180193929913101</v>
+        <v>0.5891093015670776</v>
       </c>
       <c r="B1">
-        <v>2.228331101253324</v>
+        <v>0.9424312114715576</v>
       </c>
       <c r="C1">
-        <v>8.29445304986608</v>
+        <v>2.715994596481323</v>
       </c>
       <c r="D1">
-        <v>2.568774751803309</v>
+        <v>6.13934850692749</v>
       </c>
       <c r="E1">
-        <v>1.206149348506502</v>
+        <v>2.090463399887085</v>
       </c>
     </row>
   </sheetData>
